--- a/Evaluation/Lap_Times.xlsx
+++ b/Evaluation/Lap_Times.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\3rd Year\Project\my-project\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Users\Harry Stevenson\Documents\project\hjs115\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775F08B9-E490-4AB1-B888-A00266DF9FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAE36C9-5D74-4971-ADE7-A7A3BC0C4892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6125C1F9-BBBE-4F59-A392-2113E9B410CB}"/>
+    <workbookView minimized="1" xWindow="5310" yWindow="435" windowWidth="9675" windowHeight="14550" xr2:uid="{6125C1F9-BBBE-4F59-A392-2113E9B410CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Tom</t>
+  </si>
+  <si>
+    <t>Thomas S</t>
   </si>
 </sst>
 </file>
@@ -139,6 +142,31 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EC9BB5F-4998-4CBD-871B-9A1866A95995}" name="Table1" displayName="Table1" ref="A1:G12" totalsRowShown="0">
+  <autoFilter ref="A1:G12" xr:uid="{7EC9BB5F-4998-4CBD-871B-9A1866A95995}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
+    <sortCondition ref="G1:G12"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{01BB8787-FA06-45F1-8251-54DD0EFADE08}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{15BAD7F8-41C7-4279-84E6-D67B4FB8117A}" name="Lap 1"/>
+    <tableColumn id="3" xr3:uid="{8A1F96A4-247D-442F-8889-04C4FB399148}" name="Lap 2"/>
+    <tableColumn id="4" xr3:uid="{D503BD53-413A-4476-B829-607325C05130}" name="Lap 3 "/>
+    <tableColumn id="5" xr3:uid="{E9337D50-607D-4954-90FA-DA429B3BCB28}" name="Best">
+      <calculatedColumnFormula>MIN(B2:D2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{190BC469-480C-4941-ADEF-CC83E02EA3F1}" name="Average">
+      <calculatedColumnFormula>AVERAGE(B2:D2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{0A54868E-05A5-4136-9900-FD6A3DAA13E7}" name="TOTAL">
+      <calculatedColumnFormula>SUM(B2:D2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,15 +466,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F4D2C6-7871-45C3-A606-4DC51E29BE78}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,137 +500,137 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>33.497999999999998</v>
+        <v>34.615000000000002</v>
       </c>
       <c r="C2">
-        <v>34.121000000000002</v>
+        <v>31.155000000000001</v>
       </c>
       <c r="D2">
-        <v>31.635999999999999</v>
+        <v>31.024999999999999</v>
       </c>
       <c r="E2">
         <f>MIN(B2:D2)</f>
-        <v>31.635999999999999</v>
+        <v>31.024999999999999</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2:D2)</f>
-        <v>33.085000000000001</v>
+        <v>32.265000000000008</v>
       </c>
       <c r="G2">
         <f>SUM(B2:D2)</f>
-        <v>99.254999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>96.795000000000016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>38.292999999999999</v>
+        <v>33.497999999999998</v>
       </c>
       <c r="C3">
-        <v>32.747</v>
+        <v>34.121000000000002</v>
       </c>
       <c r="D3">
-        <v>32.518999999999998</v>
+        <v>31.635999999999999</v>
       </c>
       <c r="E3">
         <f>MIN(B3:D3)</f>
-        <v>32.518999999999998</v>
+        <v>31.635999999999999</v>
       </c>
       <c r="F3">
         <f>AVERAGE(B3:D3)</f>
+        <v>33.085000000000001</v>
+      </c>
+      <c r="G3">
+        <f>SUM(B3:D3)</f>
+        <v>99.254999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>35.39</v>
+      </c>
+      <c r="C4">
+        <v>33.652999999999999</v>
+      </c>
+      <c r="D4">
+        <v>31.655000000000001</v>
+      </c>
+      <c r="E4">
+        <f>MIN(B4:D4)</f>
+        <v>31.655000000000001</v>
+      </c>
+      <c r="F4">
+        <f>AVERAGE(B4:D4)</f>
+        <v>33.566000000000003</v>
+      </c>
+      <c r="G4">
+        <f>SUM(B4:D4)</f>
+        <v>100.69800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>35.798000000000002</v>
+      </c>
+      <c r="C5">
+        <v>34.921999999999997</v>
+      </c>
+      <c r="D5">
+        <v>31.908000000000001</v>
+      </c>
+      <c r="E5">
+        <f>MIN(B5:D5)</f>
+        <v>31.908000000000001</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(B5:D5)</f>
+        <v>34.209333333333333</v>
+      </c>
+      <c r="G5">
+        <f>SUM(B5:D5)</f>
+        <v>102.628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>38.292999999999999</v>
+      </c>
+      <c r="C6">
+        <v>32.747</v>
+      </c>
+      <c r="D6">
+        <v>32.518999999999998</v>
+      </c>
+      <c r="E6">
+        <f>MIN(B6:D6)</f>
+        <v>32.518999999999998</v>
+      </c>
+      <c r="F6">
+        <f>AVERAGE(B6:D6)</f>
         <v>34.519666666666666</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G11" si="0">SUM(B3:D3)</f>
+      <c r="G6">
+        <f>SUM(B6:D6)</f>
         <v>103.559</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>39.118000000000002</v>
-      </c>
-      <c r="C4">
-        <v>39.020000000000003</v>
-      </c>
-      <c r="D4">
-        <v>33.878999999999998</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E11" si="1">MIN(B4:D4)</f>
-        <v>33.878999999999998</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F11" si="2">AVERAGE(B4:D4)</f>
-        <v>37.338999999999999</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>112.017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>39.865000000000002</v>
-      </c>
-      <c r="C5">
-        <v>36.329000000000001</v>
-      </c>
-      <c r="D5">
-        <v>36.896999999999998</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>36.329000000000001</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>37.697000000000003</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>113.09100000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>37.399000000000001</v>
-      </c>
-      <c r="C6">
-        <v>36.807000000000002</v>
-      </c>
-      <c r="D6">
-        <v>40.155999999999999</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>36.807000000000002</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>38.120666666666665</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>114.36199999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -613,123 +644,152 @@
         <v>34.5</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f>MIN(B7:D7)</f>
         <v>34.5</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(B7:D7)</f>
         <v>35.854666666666667</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f>SUM(B7:D7)</f>
         <v>107.56399999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>39.118000000000002</v>
+      </c>
+      <c r="C8">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="D8">
+        <v>33.878999999999998</v>
+      </c>
+      <c r="E8">
+        <f>MIN(B8:D8)</f>
+        <v>33.878999999999998</v>
+      </c>
+      <c r="F8">
+        <f>AVERAGE(B8:D8)</f>
+        <v>37.338999999999999</v>
+      </c>
+      <c r="G8">
+        <f>SUM(B8:D8)</f>
+        <v>112.017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>39.865000000000002</v>
+      </c>
+      <c r="C9">
+        <v>36.329000000000001</v>
+      </c>
+      <c r="D9">
+        <v>36.896999999999998</v>
+      </c>
+      <c r="E9">
+        <f>MIN(B9:D9)</f>
+        <v>36.329000000000001</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE(B9:D9)</f>
+        <v>37.697000000000003</v>
+      </c>
+      <c r="G9">
+        <f>SUM(B9:D9)</f>
+        <v>113.09100000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>37.399000000000001</v>
+      </c>
+      <c r="C10">
+        <v>36.807000000000002</v>
+      </c>
+      <c r="D10">
+        <v>40.155999999999999</v>
+      </c>
+      <c r="E10">
+        <f>MIN(B10:D10)</f>
+        <v>36.807000000000002</v>
+      </c>
+      <c r="F10">
+        <f>AVERAGE(B10:D10)</f>
+        <v>38.120666666666665</v>
+      </c>
+      <c r="G10">
+        <f>SUM(B10:D10)</f>
+        <v>114.36199999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B11">
         <v>39.762</v>
       </c>
-      <c r="C8">
+      <c r="C11">
         <v>37.948</v>
       </c>
-      <c r="D8">
+      <c r="D11">
         <v>38.109000000000002</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
+      <c r="E11">
+        <f>MIN(B11:D11)</f>
         <v>37.948</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
+      <c r="F11">
+        <f>AVERAGE(B11:D11)</f>
         <v>38.606333333333339</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
+      <c r="G11">
+        <f>SUM(B11:D11)</f>
         <v>115.81900000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>35.39</v>
-      </c>
-      <c r="C9">
-        <v>33.652999999999999</v>
-      </c>
-      <c r="D9">
-        <v>31.655000000000001</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>31.655000000000001</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>33.566000000000003</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>100.69800000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>35.798000000000002</v>
-      </c>
-      <c r="C10">
-        <v>34.921999999999997</v>
-      </c>
-      <c r="D10">
-        <v>31.908000000000001</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>31.908000000000001</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>34.209333333333333</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>102.628</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>51.091000000000001</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>36.478999999999999</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>34.97</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
+      <c r="E12">
+        <f>MIN(B12:D12)</f>
         <v>34.97</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
+      <c r="F12">
+        <f>AVERAGE(B12:D12)</f>
         <v>40.846666666666664</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
+      <c r="G12">
+        <f>SUM(B12:D12)</f>
         <v>122.53999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Evaluation/Lap_Times.xlsx
+++ b/Evaluation/Lap_Times.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Users\Harry Stevenson\Documents\project\hjs115\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\hjs115\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAE36C9-5D74-4971-ADE7-A7A3BC0C4892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E913013-53B9-4757-BA37-06D350AC4A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5310" yWindow="435" windowWidth="9675" windowHeight="14550" xr2:uid="{6125C1F9-BBBE-4F59-A392-2113E9B410CB}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{6125C1F9-BBBE-4F59-A392-2113E9B410CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Lap 1</t>
   </si>
@@ -47,56 +44,71 @@
     <t>Lap 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Lap 3 </t>
-  </si>
-  <si>
-    <t>Best</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
-    <t>Harry</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Arrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joe </t>
-  </si>
-  <si>
-    <t>Joe W</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Elliott</t>
-  </si>
-  <si>
-    <t>Melissa</t>
-  </si>
-  <si>
-    <t>Raef</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Thomas S</t>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>Lap 3</t>
+  </si>
+  <si>
+    <t>Best Lap</t>
+  </si>
+  <si>
+    <t>Average Lap</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Particiapant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,16 +116,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -121,12 +145,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,35 +249,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EC9BB5F-4998-4CBD-871B-9A1866A95995}" name="Table1" displayName="Table1" ref="A1:G12" totalsRowShown="0">
-  <autoFilter ref="A1:G12" xr:uid="{7EC9BB5F-4998-4CBD-871B-9A1866A95995}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
-    <sortCondition ref="G1:G12"/>
-  </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{01BB8787-FA06-45F1-8251-54DD0EFADE08}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{15BAD7F8-41C7-4279-84E6-D67B4FB8117A}" name="Lap 1"/>
-    <tableColumn id="3" xr3:uid="{8A1F96A4-247D-442F-8889-04C4FB399148}" name="Lap 2"/>
-    <tableColumn id="4" xr3:uid="{D503BD53-413A-4476-B829-607325C05130}" name="Lap 3 "/>
-    <tableColumn id="5" xr3:uid="{E9337D50-607D-4954-90FA-DA429B3BCB28}" name="Best">
-      <calculatedColumnFormula>MIN(B2:D2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{190BC469-480C-4941-ADEF-CC83E02EA3F1}" name="Average">
-      <calculatedColumnFormula>AVERAGE(B2:D2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{0A54868E-05A5-4136-9900-FD6A3DAA13E7}" name="TOTAL">
-      <calculatedColumnFormula>SUM(B2:D2)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -210,7 +290,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -316,7 +396,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -458,7 +538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -466,330 +546,407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F4D2C6-7871-45C3-A606-4DC51E29BE78}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5">
+        <v>51.091000000000001</v>
+      </c>
+      <c r="D3" s="5">
+        <v>36.478999999999999</v>
+      </c>
+      <c r="E3" s="5">
+        <v>34.97</v>
+      </c>
+      <c r="F3" s="5">
+        <f>MIN(C3:E3)</f>
+        <v>34.97</v>
+      </c>
+      <c r="G3" s="5">
+        <f>AVERAGE(C3:E3)</f>
+        <v>40.846666666666664</v>
+      </c>
+      <c r="H3" s="6">
+        <f>SUM(C3:E3)</f>
+        <v>122.53999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G4" s="7">
+        <f>AVERAGE(C3:E3)</f>
+        <v>40.846666666666664</v>
+      </c>
+      <c r="H4" s="7">
+        <f>SUM(C3:E3)</f>
+        <v>122.53999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>35.173000000000002</v>
+      </c>
+      <c r="D6" s="5">
+        <v>37.890999999999998</v>
+      </c>
+      <c r="E6" s="5">
+        <v>34.5</v>
+      </c>
+      <c r="F6" s="5">
+        <f>MIN(C6:E6)</f>
+        <v>34.5</v>
+      </c>
+      <c r="G6" s="5">
+        <f>AVERAGE(C6:E6)</f>
+        <v>35.854666666666667</v>
+      </c>
+      <c r="H6" s="6">
+        <f>SUM(C6:E6)</f>
+        <v>107.56399999999999</v>
+      </c>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>39.118000000000002</v>
+      </c>
+      <c r="D7" s="2">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="E7" s="2">
+        <v>33.878999999999998</v>
+      </c>
+      <c r="F7" s="2">
+        <f>MIN(C7:E7)</f>
+        <v>33.878999999999998</v>
+      </c>
+      <c r="G7" s="2">
+        <f>AVERAGE(C7:E7)</f>
+        <v>37.338999999999999</v>
+      </c>
+      <c r="H7" s="3">
+        <f>SUM(C7:E7)</f>
+        <v>112.017</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>39.865000000000002</v>
+      </c>
+      <c r="D8" s="5">
+        <v>36.329000000000001</v>
+      </c>
+      <c r="E8" s="5">
+        <v>36.896999999999998</v>
+      </c>
+      <c r="F8" s="5">
+        <f>MIN(C8:E8)</f>
+        <v>36.329000000000001</v>
+      </c>
+      <c r="G8" s="5">
+        <f>AVERAGE(C8:E8)</f>
+        <v>37.697000000000003</v>
+      </c>
+      <c r="H8" s="6">
+        <f>SUM(C8:E8)</f>
+        <v>113.09100000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>37.399000000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>36.807000000000002</v>
+      </c>
+      <c r="E9" s="2">
+        <v>40.155999999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <f>MIN(C9:E9)</f>
+        <v>36.807000000000002</v>
+      </c>
+      <c r="G9" s="2">
+        <f>AVERAGE(C9:E9)</f>
+        <v>38.120666666666665</v>
+      </c>
+      <c r="H9" s="3">
+        <f>SUM(C9:E9)</f>
+        <v>114.36199999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5">
+        <v>39.762</v>
+      </c>
+      <c r="D10" s="5">
+        <v>37.948</v>
+      </c>
+      <c r="E10" s="5">
+        <v>38.109000000000002</v>
+      </c>
+      <c r="F10" s="5">
+        <f>MIN(C10:E10)</f>
+        <v>37.948</v>
+      </c>
+      <c r="G10" s="5">
+        <f>AVERAGE(C10:E10)</f>
+        <v>38.606333333333339</v>
+      </c>
+      <c r="H10" s="6">
+        <f>SUM(C10:E10)</f>
+        <v>115.81900000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7">
+        <f>AVERAGE(G6:G10)</f>
+        <v>37.523533333333333</v>
+      </c>
+      <c r="H11" s="8">
+        <f>AVERAGE(H6:H10)</f>
+        <v>112.57060000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>34.615000000000002</v>
+      </c>
+      <c r="D13" s="2">
+        <v>31.155000000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <v>31.024999999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <f>MIN(C13:E13)</f>
+        <v>31.024999999999999</v>
+      </c>
+      <c r="G13" s="2">
+        <f>AVERAGE(C13:E13)</f>
+        <v>32.265000000000008</v>
+      </c>
+      <c r="H13" s="3">
+        <f>SUM(C13:E13)</f>
+        <v>96.795000000000016</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>34.615000000000002</v>
-      </c>
-      <c r="C2">
-        <v>31.155000000000001</v>
-      </c>
-      <c r="D2">
-        <v>31.024999999999999</v>
-      </c>
-      <c r="E2">
-        <f>MIN(B2:D2)</f>
-        <v>31.024999999999999</v>
-      </c>
-      <c r="F2">
-        <f>AVERAGE(B2:D2)</f>
-        <v>32.265000000000008</v>
-      </c>
-      <c r="G2">
-        <f>SUM(B2:D2)</f>
-        <v>96.795000000000016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
+      <c r="C14" s="5">
         <v>33.497999999999998</v>
       </c>
-      <c r="C3">
+      <c r="D14" s="5">
         <v>34.121000000000002</v>
       </c>
-      <c r="D3">
+      <c r="E14" s="5">
         <v>31.635999999999999</v>
       </c>
-      <c r="E3">
-        <f>MIN(B3:D3)</f>
+      <c r="F14" s="5">
+        <f>MIN(C14:E14)</f>
         <v>31.635999999999999</v>
       </c>
-      <c r="F3">
-        <f>AVERAGE(B3:D3)</f>
+      <c r="G14" s="5">
+        <f>AVERAGE(C14:E14)</f>
         <v>33.085000000000001</v>
       </c>
-      <c r="G3">
-        <f>SUM(B3:D3)</f>
+      <c r="H14" s="6">
+        <f>SUM(C14:E14)</f>
         <v>99.254999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>35.39</v>
+      </c>
+      <c r="D15" s="2">
+        <v>33.652999999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>31.655000000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <f>MIN(C15:E15)</f>
+        <v>31.655000000000001</v>
+      </c>
+      <c r="G15" s="2">
+        <f>AVERAGE(C15:E15)</f>
+        <v>33.566000000000003</v>
+      </c>
+      <c r="H15" s="3">
+        <f>SUM(C15:E15)</f>
+        <v>100.69800000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>35.39</v>
-      </c>
-      <c r="C4">
-        <v>33.652999999999999</v>
-      </c>
-      <c r="D4">
-        <v>31.655000000000001</v>
-      </c>
-      <c r="E4">
-        <f>MIN(B4:D4)</f>
-        <v>31.655000000000001</v>
-      </c>
-      <c r="F4">
-        <f>AVERAGE(B4:D4)</f>
-        <v>33.566000000000003</v>
-      </c>
-      <c r="G4">
-        <f>SUM(B4:D4)</f>
-        <v>100.69800000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C16" s="5">
+        <v>35.798000000000002</v>
+      </c>
+      <c r="D16" s="5">
+        <v>34.921999999999997</v>
+      </c>
+      <c r="E16" s="5">
+        <v>31.908000000000001</v>
+      </c>
+      <c r="F16" s="5">
+        <f>MIN(C16:E16)</f>
+        <v>31.908000000000001</v>
+      </c>
+      <c r="G16" s="5">
+        <f>AVERAGE(C16:E16)</f>
+        <v>34.209333333333333</v>
+      </c>
+      <c r="H16" s="6">
+        <f>SUM(C16:E16)</f>
+        <v>102.628</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>35.798000000000002</v>
-      </c>
-      <c r="C5">
-        <v>34.921999999999997</v>
-      </c>
-      <c r="D5">
-        <v>31.908000000000001</v>
-      </c>
-      <c r="E5">
-        <f>MIN(B5:D5)</f>
-        <v>31.908000000000001</v>
-      </c>
-      <c r="F5">
-        <f>AVERAGE(B5:D5)</f>
-        <v>34.209333333333333</v>
-      </c>
-      <c r="G5">
-        <f>SUM(B5:D5)</f>
-        <v>102.628</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
+      <c r="C17" s="2">
         <v>38.292999999999999</v>
       </c>
-      <c r="C6">
+      <c r="D17" s="2">
         <v>32.747</v>
       </c>
-      <c r="D6">
+      <c r="E17" s="2">
         <v>32.518999999999998</v>
       </c>
-      <c r="E6">
-        <f>MIN(B6:D6)</f>
+      <c r="F17" s="2">
+        <f>MIN(C17:E17)</f>
         <v>32.518999999999998</v>
       </c>
-      <c r="F6">
-        <f>AVERAGE(B6:D6)</f>
+      <c r="G17" s="2">
+        <f>AVERAGE(C17:E17)</f>
         <v>34.519666666666666</v>
       </c>
-      <c r="G6">
-        <f>SUM(B6:D6)</f>
+      <c r="H17" s="3">
+        <f>SUM(C17:E17)</f>
         <v>103.559</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>35.173000000000002</v>
-      </c>
-      <c r="C7">
-        <v>37.890999999999998</v>
-      </c>
-      <c r="D7">
-        <v>34.5</v>
-      </c>
-      <c r="E7">
-        <f>MIN(B7:D7)</f>
-        <v>34.5</v>
-      </c>
-      <c r="F7">
-        <f>AVERAGE(B7:D7)</f>
-        <v>35.854666666666667</v>
-      </c>
-      <c r="G7">
-        <f>SUM(B7:D7)</f>
-        <v>107.56399999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>39.118000000000002</v>
-      </c>
-      <c r="C8">
-        <v>39.020000000000003</v>
-      </c>
-      <c r="D8">
-        <v>33.878999999999998</v>
-      </c>
-      <c r="E8">
-        <f>MIN(B8:D8)</f>
-        <v>33.878999999999998</v>
-      </c>
-      <c r="F8">
-        <f>AVERAGE(B8:D8)</f>
-        <v>37.338999999999999</v>
-      </c>
-      <c r="G8">
-        <f>SUM(B8:D8)</f>
-        <v>112.017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>39.865000000000002</v>
-      </c>
-      <c r="C9">
-        <v>36.329000000000001</v>
-      </c>
-      <c r="D9">
-        <v>36.896999999999998</v>
-      </c>
-      <c r="E9">
-        <f>MIN(B9:D9)</f>
-        <v>36.329000000000001</v>
-      </c>
-      <c r="F9">
-        <f>AVERAGE(B9:D9)</f>
-        <v>37.697000000000003</v>
-      </c>
-      <c r="G9">
-        <f>SUM(B9:D9)</f>
-        <v>113.09100000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>37.399000000000001</v>
-      </c>
-      <c r="C10">
-        <v>36.807000000000002</v>
-      </c>
-      <c r="D10">
-        <v>40.155999999999999</v>
-      </c>
-      <c r="E10">
-        <f>MIN(B10:D10)</f>
-        <v>36.807000000000002</v>
-      </c>
-      <c r="F10">
-        <f>AVERAGE(B10:D10)</f>
-        <v>38.120666666666665</v>
-      </c>
-      <c r="G10">
-        <f>SUM(B10:D10)</f>
-        <v>114.36199999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>39.762</v>
-      </c>
-      <c r="C11">
-        <v>37.948</v>
-      </c>
-      <c r="D11">
-        <v>38.109000000000002</v>
-      </c>
-      <c r="E11">
-        <f>MIN(B11:D11)</f>
-        <v>37.948</v>
-      </c>
-      <c r="F11">
-        <f>AVERAGE(B11:D11)</f>
-        <v>38.606333333333339</v>
-      </c>
-      <c r="G11">
-        <f>SUM(B11:D11)</f>
-        <v>115.81900000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>51.091000000000001</v>
-      </c>
-      <c r="C12">
-        <v>36.478999999999999</v>
-      </c>
-      <c r="D12">
-        <v>34.97</v>
-      </c>
-      <c r="E12">
-        <f>MIN(B12:D12)</f>
-        <v>34.97</v>
-      </c>
-      <c r="F12">
-        <f>AVERAGE(B12:D12)</f>
-        <v>40.846666666666664</v>
-      </c>
-      <c r="G12">
-        <f>SUM(B12:D12)</f>
-        <v>122.53999999999999</v>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="9">
+        <f>AVERAGE(G13:G17)</f>
+        <v>33.529000000000003</v>
+      </c>
+      <c r="H18" s="10">
+        <f>AVERAGE(H13:H17)</f>
+        <v>100.58700000000002</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Evaluation/Lap_Times.xlsx
+++ b/Evaluation/Lap_Times.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\hjs115\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E913013-53B9-4757-BA37-06D350AC4A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F55862-5D60-4ECE-818E-4C8872E4748C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{6125C1F9-BBBE-4F59-A392-2113E9B410CB}"/>
+    <workbookView xWindow="18105" yWindow="1200" windowWidth="9675" windowHeight="14550" xr2:uid="{6125C1F9-BBBE-4F59-A392-2113E9B410CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Lap 1</t>
   </si>
@@ -102,13 +102,16 @@
   </si>
   <si>
     <t>Particiapant</t>
+  </si>
+  <si>
+    <t>37.7 * 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +121,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,28 +223,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="47" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -546,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F4D2C6-7871-45C3-A606-4DC51E29BE78}">
-  <dimension ref="B1:K18"/>
+  <dimension ref="B1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,15 +595,15 @@
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -619,7 +632,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="7">
@@ -632,15 +645,15 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
@@ -667,7 +680,7 @@
         <f>SUM(C6:E6)</f>
         <v>107.56399999999999</v>
       </c>
-      <c r="K6" s="11"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -774,7 +787,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="7">
@@ -787,15 +800,15 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -931,13 +944,35 @@
       <c r="F18" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18">
         <f>AVERAGE(G13:G17)</f>
         <v>33.529000000000003</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <f>AVERAGE(H13:H17)</f>
         <v>100.58700000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <f>PRODUCT(37.7,3)</f>
+        <v>113.10000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="10">
+        <v>1.3090277777777777E-3</v>
+      </c>
+      <c r="D21" s="13">
+        <v>9.0096064814814824E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>77.8</v>
       </c>
     </row>
   </sheetData>
@@ -947,6 +982,9 @@
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D21" r:id="rId1" display="https://youtu.be/6H6UnSDPPdI" xr:uid="{D61471C9-2267-488E-AF72-50C21FD68A92}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>